--- a/arsel/data_toolset/BatchRun/CheckCellValue/MAS649_v1_0013_20141231.xlsx
+++ b/arsel/data_toolset/BatchRun/CheckCellValue/MAS649_v1_0013_20141231.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
   <si>
     <t>CellName</t>
   </si>
@@ -34,33 +34,9 @@
     <t>Test Result</t>
   </si>
   <si>
-    <t>LCRF2S1AAR1C1</t>
-  </si>
-  <si>
-    <t>11.2%</t>
-  </si>
-  <si>
-    <t>LCRF2S1AAR1C2</t>
-  </si>
-  <si>
-    <t>1,912,331,001</t>
-  </si>
-  <si>
-    <t>214,721,001</t>
-  </si>
-  <si>
-    <t>LCRF2S1AAR1C3</t>
-  </si>
-  <si>
-    <t>0.0%</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>LCRF2S1ABR1C1</t>
-  </si>
-  <si>
     <t>4,783</t>
   </si>
   <si>
@@ -70,16 +46,58 @@
     <t>1,388</t>
   </si>
   <si>
-    <t>LCRF2S1BP2R1C2</t>
-  </si>
-  <si>
-    <t>4,863,528</t>
-  </si>
-  <si>
-    <t>80,224</t>
-  </si>
-  <si>
-    <t>4,555,395</t>
+    <t>LCRF2S1ABR1C2</t>
+  </si>
+  <si>
+    <t>LCRF2S1ABR2C2</t>
+  </si>
+  <si>
+    <t>3,617</t>
+  </si>
+  <si>
+    <t>LCRF2S1ABR3C2</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>LCRF2S1ABR10C2</t>
+  </si>
+  <si>
+    <t>10,379</t>
+  </si>
+  <si>
+    <t>LCRF2S1ABR12C2</t>
+  </si>
+  <si>
+    <t>10,038</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>3,229</t>
+  </si>
+  <si>
+    <t>2,980</t>
+  </si>
+  <si>
+    <t>3,467</t>
+  </si>
+  <si>
+    <t>4,855</t>
+  </si>
+  <si>
+    <t>LCRF1INST</t>
+  </si>
+  <si>
+    <t>INST1</t>
+  </si>
+  <si>
+    <t>LCRF1DATE</t>
+  </si>
+  <si>
+    <t>12/2014</t>
   </si>
 </sst>
 </file>
@@ -129,10 +147,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -438,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,90 +496,90 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
+      <c r="D3" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -568,131 +587,153 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>16</v>
+        <v>3</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>13</v>
+      <c r="D16" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C21">
         <v>4</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>21</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
